--- a/plot_data/GestionCreditos.xlsx
+++ b/plot_data/GestionCreditos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Datos Generales"/>
@@ -88,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +98,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -203,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -237,21 +230,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -596,23 +574,23 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="28" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="29" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="23" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="24" width="20.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -620,10 +598,10 @@
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="18">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="19">
         <v>100000</v>
       </c>
     </row>
@@ -631,10 +609,10 @@
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="18">
         <v>26</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="19">
         <v>2500</v>
       </c>
     </row>
@@ -642,10 +620,10 @@
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="18">
         <v>30</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="19">
         <v>6000</v>
       </c>
     </row>
@@ -653,10 +631,10 @@
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="18">
         <v>27</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="19">
         <v>16000</v>
       </c>
     </row>
@@ -664,10 +642,10 @@
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="19">
         <v>0</v>
       </c>
     </row>
@@ -675,10 +653,10 @@
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="22">
         <v>0</v>
       </c>
     </row>
@@ -692,25 +670,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="18" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="18" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="18" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="18" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
@@ -1000,96 +978,6 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
